--- a/data/trans_orig/IP07C23_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C23_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B882834-0325-4FE5-B41D-FF645FAF1B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1096356-0EC4-4C07-9521-1030ACFC42F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{277CC7A8-CFAD-4BEF-91C6-8C024647F853}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7649F28C-62DA-4A4B-9007-C359065D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,166 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>7,86%</t>
@@ -98,33 +254,6 @@
     <t>12,88%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>36,78%</t>
   </si>
   <si>
@@ -152,18 +281,6 @@
     <t>43,73%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>54,74%</t>
   </si>
   <si>
@@ -191,108 +308,138 @@
     <t>64,03%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
     <t>5,02%</t>
   </si>
   <si>
@@ -320,15 +467,6 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>21,07%</t>
   </si>
   <si>
@@ -356,18 +494,6 @@
     <t>34,33%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
     <t>70,81%</t>
   </si>
   <si>
@@ -395,130 +521,43 @@
     <t>74,38%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>4,4%</t>
@@ -533,9 +572,6 @@
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
     <t>6,16%</t>
   </si>
   <si>
@@ -548,18 +584,6 @@
     <t>5,99%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
     <t>29,41%</t>
   </si>
   <si>
@@ -585,30 +609,6 @@
   </si>
   <si>
     <t>36,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
   </si>
   <si>
     <t>64,1%</t>
@@ -1024,7 +1024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0096A0B9-238C-477F-877A-5C224101E4FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2C094F-A7DE-4B95-A0D1-3E59862D934D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1142,10 +1142,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>8069</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1157,55 +1157,55 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>3550</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11620</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1214,85 +1214,85 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>37770</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>19578</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>57348</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1301,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1316,13 +1316,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1331,64 +1331,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>56217</v>
+        <v>1745</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>33932</v>
+        <v>1593</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>90149</v>
+        <v>3339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,54 +1397,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>102698</v>
+        <v>1745</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>159759</v>
+        <v>3339</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1456,49 +1456,49 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>698</v>
+        <v>443</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>698</v>
+        <v>443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1507,13 +1507,13 @@
         <v>539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1537,121 +1537,121 @@
         <v>539</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>16864</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>12092</v>
+        <v>698</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="M12" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>28956</v>
+        <v>698</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16864</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>443</v>
+        <v>12092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>443</v>
+        <v>28956</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>28</v>
@@ -1660,13 +1660,13 @@
         <v>24561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -1675,13 +1675,13 @@
         <v>18666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -1690,13 +1690,13 @@
         <v>43227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,13 +1711,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1726,13 +1726,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1741,87 +1741,87 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>2829</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1964</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>4793</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1830,181 +1830,181 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>11872</v>
+        <v>8069</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>18526</v>
+        <v>3550</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>30398</v>
+        <v>11620</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7">
-        <v>1747</v>
+        <v>37770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>19578</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="N19" s="7">
-        <v>1747</v>
+        <v>57348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D20" s="7">
-        <v>39894</v>
+        <v>56217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
       </c>
       <c r="I20" s="7">
-        <v>35994</v>
+        <v>33932</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N20" s="7">
-        <v>75888</v>
+        <v>90149</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,108 +2013,108 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>56342</v>
+        <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I21" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="N21" s="7">
-        <v>112826</v>
+        <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>2635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>3111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2153,166 +2153,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>11913</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20123</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>32036</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7">
-        <v>1745</v>
+        <v>48471</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="7">
+        <v>46</v>
+      </c>
+      <c r="I26" s="7">
+        <v>34093</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>95</v>
+      </c>
+      <c r="N26" s="7">
+        <v>82564</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1593</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3339</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,84 +2321,84 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7">
-        <v>1745</v>
+        <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I27" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M27" s="7">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>3339</v>
+        <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>833</v>
+        <v>1747</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>129</v>
@@ -2407,13 +2407,13 @@
         <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>1649</v>
+        <v>1747</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>130</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>131</v>
@@ -2422,7 +2422,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>132</v>
@@ -2446,121 +2446,121 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>11913</v>
+        <v>2829</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1964</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="7">
-        <v>18</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20123</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>7</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4793</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="7">
-        <v>30</v>
-      </c>
-      <c r="N30" s="7">
-        <v>32036</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D31" s="7">
-        <v>2635</v>
+        <v>11872</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>23</v>
+      </c>
+      <c r="I31" s="7">
+        <v>18526</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>476</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>148</v>
       </c>
       <c r="M31" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="N31" s="7">
-        <v>3111</v>
+        <v>30398</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>149</v>
@@ -2575,13 +2575,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" s="7">
-        <v>48471</v>
+        <v>39894</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>152</v>
@@ -2593,10 +2593,10 @@
         <v>154</v>
       </c>
       <c r="H32" s="7">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I32" s="7">
-        <v>34093</v>
+        <v>35994</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>155</v>
@@ -2608,10 +2608,10 @@
         <v>157</v>
       </c>
       <c r="M32" s="7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N32" s="7">
-        <v>82564</v>
+        <v>75888</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>158</v>
@@ -2629,49 +2629,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
-        <v>63851</v>
+        <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H33" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I33" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M33" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N33" s="7">
-        <v>119360</v>
+        <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,10 +2682,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>11731</v>
+        <v>4382</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>161</v>
@@ -2697,40 +2697,40 @@
         <v>163</v>
       </c>
       <c r="H34" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>7029</v>
+        <v>920</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>164</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>7</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5302</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M34" s="7">
-        <v>22</v>
-      </c>
-      <c r="N34" s="7">
-        <v>18760</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
@@ -2739,14 +2739,14 @@
         <v>1182</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>171</v>
@@ -2772,7 +2772,7 @@
         <v>172</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>173</v>
@@ -2781,13 +2781,13 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D36" s="7">
-        <v>78418</v>
+        <v>11731</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>174</v>
@@ -2799,76 +2799,76 @@
         <v>176</v>
       </c>
       <c r="H36" s="7">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I36" s="7">
-        <v>70319</v>
+        <v>7029</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>177</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>22</v>
+      </c>
+      <c r="N36" s="7">
+        <v>18760</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="M36" s="7">
-        <v>165</v>
-      </c>
-      <c r="N36" s="7">
-        <v>148737</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D37" s="7">
-        <v>4382</v>
+        <v>78418</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>80</v>
+      </c>
+      <c r="I37" s="7">
+        <v>70319</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>920</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>187</v>
       </c>
       <c r="M37" s="7">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="N37" s="7">
-        <v>5302</v>
+        <v>148737</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>188</v>
@@ -2883,7 +2883,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C38" s="7">
         <v>202</v>
@@ -2928,7 +2928,7 @@
         <v>198</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2943,13 @@
         <v>266601</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -2958,13 +2958,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M39" s="7">
         <v>576</v>
@@ -2973,13 +2973,13 @@
         <v>469147</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C23_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C23_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1096356-0EC4-4C07-9521-1030ACFC42F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F7D62F-B9AD-4D42-BE6B-D80F4E624FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7649F28C-62DA-4A4B-9007-C359065D114E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D438F49D-1AC4-44FC-943E-4CA46FE93766}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="200">
   <si>
     <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -68,571 +68,574 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>6,24%</t>
+    <t>6,2%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -739,39 +742,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -823,7 +826,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -934,13 +937,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -949,6 +945,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1013,19 +1016,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2C094F-A7DE-4B95-A0D1-3E59862D934D}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DBF694-5969-4151-82CE-4ABC370DA16B}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1142,10 +1165,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1157,10 +1180,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1172,19 +1195,19 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3339</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1199,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1214,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1229,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1250,13 +1273,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1265,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1280,34 +1303,34 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1316,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1331,64 +1354,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1745</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1593</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3339</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,13 +1426,13 @@
         <v>1745</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1418,13 +1441,13 @@
         <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -1433,13 +1456,13 @@
         <v>3339</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,49 +1473,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>24561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>443</v>
+        <v>18666</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>443</v>
+        <v>43227</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,55 +1524,55 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>539</v>
+        <v>16864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>12092</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>539</v>
+        <v>28956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1558,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1573,13 +1596,13 @@
         <v>698</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1588,112 +1611,112 @@
         <v>698</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>539</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7">
-        <v>16864</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12092</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>28956</v>
+        <v>539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>24561</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>18666</v>
+        <v>443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="M14" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>43227</v>
+        <v>443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>54</v>
@@ -1711,13 +1734,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1726,13 +1749,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1741,13 +1764,13 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,49 +1781,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>56217</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>33932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>90149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,55 +1832,55 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>643</v>
+        <v>37770</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>19578</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N17" s="7">
-        <v>643</v>
+        <v>57348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>7</v>
@@ -1866,13 +1889,13 @@
         <v>8069</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1881,13 +1904,13 @@
         <v>3550</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -1896,112 +1919,112 @@
         <v>11620</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>643</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7">
-        <v>37770</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19578</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>57348</v>
+        <v>643</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>56217</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>33932</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="M20" s="7">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>90149</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>89</v>
@@ -2019,13 +2042,13 @@
         <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -2034,13 +2057,13 @@
         <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>198</v>
@@ -2049,13 +2072,13 @@
         <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,10 +2089,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>2635</v>
+        <v>48471</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>91</v>
@@ -2081,34 +2104,34 @@
         <v>93</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>476</v>
+        <v>34093</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>94</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="7">
         <v>95</v>
       </c>
-      <c r="M22" s="7">
-        <v>4</v>
-      </c>
       <c r="N22" s="7">
-        <v>3111</v>
+        <v>82564</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,55 +2140,55 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>11913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>20123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>32036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -2174,13 +2197,13 @@
         <v>833</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2189,13 +2212,13 @@
         <v>817</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2204,106 +2227,106 @@
         <v>1649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="7">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7">
-        <v>11913</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>20123</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>32036</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>48471</v>
+        <v>2635</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>34093</v>
+        <v>476</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>122</v>
       </c>
       <c r="M26" s="7">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>82564</v>
+        <v>3111</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>123</v>
@@ -2327,13 +2350,13 @@
         <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -2342,13 +2365,13 @@
         <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
         <v>131</v>
@@ -2357,13 +2380,13 @@
         <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,49 +2397,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D28" s="7">
-        <v>1747</v>
+        <v>39894</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>127</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>35994</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N28" s="7">
-        <v>1747</v>
+        <v>75888</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,55 +2448,55 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>11872</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>18526</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>30398</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -2482,13 +2505,13 @@
         <v>2829</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2497,13 +2520,13 @@
         <v>1964</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2512,112 +2535,112 @@
         <v>4793</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="7">
-        <v>13</v>
-      </c>
-      <c r="D31" s="7">
-        <v>11872</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H31" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>18526</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M31" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>30398</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C32" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>39894</v>
+        <v>1747</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H32" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>35994</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="M32" s="7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>75888</v>
+        <v>1747</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>160</v>
@@ -2635,13 +2658,13 @@
         <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
         <v>75</v>
@@ -2650,13 +2673,13 @@
         <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
         <v>145</v>
@@ -2665,13 +2688,13 @@
         <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,10 +2705,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="D34" s="7">
-        <v>4382</v>
+        <v>170888</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>161</v>
@@ -2697,34 +2720,34 @@
         <v>163</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="I34" s="7">
-        <v>920</v>
+        <v>124278</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>164</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M34" s="7">
-        <v>7</v>
+        <v>380</v>
       </c>
       <c r="N34" s="7">
-        <v>5302</v>
+        <v>295167</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,55 +2756,55 @@
         <v>15</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D35" s="7">
-        <v>1182</v>
+        <v>78418</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>70319</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="N35" s="7">
-        <v>1182</v>
+        <v>148737</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C36" s="7">
         <v>12</v>
@@ -2790,13 +2813,13 @@
         <v>11731</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -2805,13 +2828,13 @@
         <v>7029</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -2820,106 +2843,106 @@
         <v>18760</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1182</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="7">
-        <v>85</v>
-      </c>
-      <c r="D37" s="7">
-        <v>78418</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H37" s="7">
-        <v>80</v>
-      </c>
-      <c r="I37" s="7">
-        <v>70319</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M37" s="7">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>148737</v>
+        <v>1182</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C38" s="7">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D38" s="7">
-        <v>170888</v>
+        <v>4382</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H38" s="7">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>124278</v>
+        <v>920</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="M38" s="7">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="N38" s="7">
-        <v>295167</v>
+        <v>5302</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>197</v>
@@ -2928,7 +2951,7 @@
         <v>198</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2966,13 @@
         <v>266601</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -2958,13 +2981,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M39" s="7">
         <v>576</v>
@@ -2973,13 +2996,18 @@
         <v>469147</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C23_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C23_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F7D62F-B9AD-4D42-BE6B-D80F4E624FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4590BA8F-57FA-48ED-AB24-1CF1794C6DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D438F49D-1AC4-44FC-943E-4CA46FE93766}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{435231DA-1779-48CA-893B-2C8E356F9171}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="199">
   <si>
     <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -107,58 +107,58 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>58,53%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
   </si>
   <si>
     <t>58,52%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
   </si>
   <si>
     <t>40,19%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -167,19 +167,19 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>10,81%</t>
+    <t>10,16%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>4,99%</t>
+    <t>4,31%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>6,31%</t>
+    <t>6,83%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -188,109 +188,109 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>4,52%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>6,2%</t>
+    <t>7,07%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>54,74%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
   </si>
   <si>
     <t>59,47%</t>
   </si>
   <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
   </si>
   <si>
     <t>36,78%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
   </si>
   <si>
     <t>35,9%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>3,34%</t>
   </si>
   <si>
     <t>2,39%</t>
@@ -299,7 +299,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,59%</t>
+    <t>1,65%</t>
   </si>
   <si>
     <t>1,6%</t>
@@ -308,79 +308,79 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>75,91%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>8,11%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>7,07%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>4,56%</t>
+    <t>5,05%</t>
   </si>
   <si>
     <t>2,9%</t>
@@ -395,25 +395,22 @@
     <t>4,13%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>5,15%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>7,01%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -422,64 +419,64 @@
     <t>70,81%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
   </si>
   <si>
     <t>67,26%</t>
   </si>
   <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>26,94%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>3,48%</t>
@@ -488,16 +485,13 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>11,49%</t>
+    <t>11,85%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>9,01%</t>
   </si>
   <si>
     <t>2,7%</t>
@@ -512,100 +506,100 @@
     <t>3,1%</t>
   </si>
   <si>
-    <t>11,93%</t>
+    <t>10,62%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>4,71%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
   </si>
   <si>
     <t>62,92%</t>
   </si>
   <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>31,7%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -614,25 +608,28 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>3,69%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>1,41%</t>
+  </si>
+  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1047,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DBF694-5969-4151-82CE-4ABC370DA16B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C08A75-9E24-4D63-B696-15B56FAEBBB1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2332,10 +2329,10 @@
         <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2388,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2403,13 +2400,13 @@
         <v>39894</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -2418,13 +2415,13 @@
         <v>35994</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -2433,13 +2430,13 @@
         <v>75888</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2451,13 @@
         <v>11872</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -2469,13 +2466,13 @@
         <v>18526</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M29" s="7">
         <v>36</v>
@@ -2484,13 +2481,13 @@
         <v>30398</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2502,13 @@
         <v>2829</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2520,13 +2517,13 @@
         <v>1964</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2535,13 +2532,13 @@
         <v>4793</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2577,7 +2574,7 @@
         <v>17</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2592,7 +2589,7 @@
         <v>17</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2604,13 @@
         <v>1747</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2628,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2637,13 +2634,13 @@
         <v>1747</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2708,13 @@
         <v>170888</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H34" s="7">
         <v>178</v>
@@ -2726,13 +2723,13 @@
         <v>124278</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M34" s="7">
         <v>380</v>
@@ -2741,13 +2738,13 @@
         <v>295167</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2759,13 @@
         <v>78418</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H35" s="7">
         <v>80</v>
@@ -2777,13 +2774,13 @@
         <v>70319</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M35" s="7">
         <v>165</v>
@@ -2792,13 +2789,13 @@
         <v>148737</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2810,13 @@
         <v>11731</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -2828,13 +2825,13 @@
         <v>7029</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -2843,13 +2840,13 @@
         <v>18760</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2861,13 @@
         <v>1182</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2885,7 +2882,7 @@
         <v>17</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -2894,13 +2891,13 @@
         <v>1182</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2912,13 @@
         <v>4382</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2930,13 +2927,13 @@
         <v>920</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -2945,13 +2942,13 @@
         <v>5302</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,7 +3004,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C23_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C23_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4590BA8F-57FA-48ED-AB24-1CF1794C6DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E94770-21AD-4C0F-AAF7-A46EE250988E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{435231DA-1779-48CA-893B-2C8E356F9171}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{02F7986F-720E-46DD-BC27-588C45B831D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="199">
-  <si>
-    <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="212">
+  <si>
+    <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,571 +65,610 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1044,8 +1083,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C08A75-9E24-4D63-B696-15B56FAEBBB1}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F2B552-781F-4B8F-8BFA-FFB048DB1743}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1162,10 +1201,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1745</v>
+        <v>918</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1177,40 +1216,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>918</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3339</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1219,196 +1258,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1719</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>3464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>11481</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>15415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>26896</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>17055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>30018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>47073</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1417,306 +1456,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>1745</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>3339</v>
+        <v>79194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>24561</v>
+        <v>1444</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>18666</v>
+        <v>1624</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>43227</v>
+        <v>3068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>16864</v>
+        <v>1013</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>12092</v>
+        <v>808</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>28956</v>
+        <v>1820</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>4959</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>698</v>
+        <v>16114</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>698</v>
+        <v>21073</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>539</v>
+        <v>19460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>33917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>539</v>
+        <v>53377</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>26758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>443</v>
+        <v>50315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N14" s="7">
-        <v>443</v>
+        <v>77072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,306 +1764,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N15" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>56217</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>33932</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>90149</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>37770</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>19578</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>57348</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>8069</v>
+        <v>6668</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>3550</v>
+        <v>10433</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>11620</v>
+        <v>17101</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>643</v>
+        <v>9481</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>10148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>643</v>
+        <v>19629</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>56034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>44397</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>100431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,306 +2072,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>102698</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>57060</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>159759</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>48471</v>
+        <v>1595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>34093</v>
+        <v>1073</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>82564</v>
+        <v>2668</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="7">
-        <v>11913</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>20123</v>
+        <v>2984</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>32036</v>
+        <v>2984</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>833</v>
+        <v>6688</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>817</v>
+        <v>10885</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M24" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N24" s="7">
-        <v>1649</v>
+        <v>17573</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>22516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>16615</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>39131</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D26" s="7">
-        <v>2635</v>
+        <v>22684</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I26" s="7">
-        <v>476</v>
+        <v>24813</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="N26" s="7">
-        <v>3111</v>
+        <v>47498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,306 +2380,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I27" s="7">
-        <v>55509</v>
+        <v>56371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N27" s="7">
-        <v>119360</v>
+        <v>109854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>39894</v>
+        <v>3957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H28" s="7">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="I28" s="7">
-        <v>35994</v>
+        <v>2697</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="M28" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N28" s="7">
-        <v>75888</v>
+        <v>6653</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>11872</v>
+        <v>1013</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>18526</v>
+        <v>4636</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>30398</v>
+        <v>5648</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D30" s="7">
-        <v>2829</v>
+        <v>20034</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I30" s="7">
-        <v>1964</v>
+        <v>39177</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="N30" s="7">
-        <v>4793</v>
+        <v>59211</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>62938</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>76095</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>139033</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="D32" s="7">
-        <v>1747</v>
+        <v>122530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>149543</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="M32" s="7">
-        <v>2</v>
+        <v>312</v>
       </c>
       <c r="N32" s="7">
-        <v>1747</v>
+        <v>272074</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,370 +2688,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>56342</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H33" s="7">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="I33" s="7">
-        <v>56484</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M33" s="7">
-        <v>145</v>
+        <v>577</v>
       </c>
       <c r="N33" s="7">
-        <v>112826</v>
+        <v>482619</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>202</v>
-      </c>
-      <c r="D34" s="7">
-        <v>170888</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="7">
-        <v>178</v>
-      </c>
-      <c r="I34" s="7">
-        <v>124278</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M34" s="7">
-        <v>380</v>
-      </c>
-      <c r="N34" s="7">
-        <v>295167</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7">
-        <v>85</v>
-      </c>
-      <c r="D35" s="7">
-        <v>78418</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H35" s="7">
-        <v>80</v>
-      </c>
-      <c r="I35" s="7">
-        <v>70319</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M35" s="7">
-        <v>165</v>
-      </c>
-      <c r="N35" s="7">
-        <v>148737</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="7">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7">
-        <v>11731</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H36" s="7">
-        <v>10</v>
-      </c>
-      <c r="I36" s="7">
-        <v>7029</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M36" s="7">
-        <v>22</v>
-      </c>
-      <c r="N36" s="7">
-        <v>18760</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1182</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1182</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="7">
-        <v>5</v>
-      </c>
-      <c r="D38" s="7">
-        <v>4382</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H38" s="7">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7">
-        <v>920</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M38" s="7">
-        <v>7</v>
-      </c>
-      <c r="N38" s="7">
-        <v>5302</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>306</v>
-      </c>
-      <c r="D39" s="7">
-        <v>266601</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="7">
-        <v>270</v>
-      </c>
-      <c r="I39" s="7">
-        <v>202546</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" s="7">
-        <v>576</v>
-      </c>
-      <c r="N39" s="7">
-        <v>469147</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>198</v>
+      <c r="A34" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
